--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>634440.0846556644</v>
+        <v>716482.3826239923</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12433859.31651125</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5739665.974240764</v>
+        <v>6544539.720854484</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9736277.693549031</v>
+        <v>9332082.58268166</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>280.8704123790405</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923704996</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>116.2631489093112</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.781160222248801</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>24.43685231957807</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>196.3467751042778</v>
       </c>
       <c r="W5" t="n">
-        <v>274.122845130882</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>17.53524887970381</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>33.85559031833735</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>205.1917798008389</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>2.562351929655376</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>208.2474868886315</v>
+        <v>203.7892779811718</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1300,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>85.4556421029896</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>98.85630789274384</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1388,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>134.0513867710689</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>34.74121858533898</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>52.23490948286015</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>7.60108101544749</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>126.7498226612781</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,19 +1660,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>92.47445699814307</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>111.9187566128691</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,19 +1849,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>126.7498226612772</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>228.1910895014597</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>106.5867442799591</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2050,25 +2052,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>183.3222805030235</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>57.89934023899399</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.68942351146532</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>142.3839003177516</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>40.61077471343791</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>78.78083674901936</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>9.152727013335143</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>77.95264323204898</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>274.5932299693704</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2564,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>85.17289288835083</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>32.9795088473611</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>106.5867442799591</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>37.59617708813238</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2807,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>36.32707961669563</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680963</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>155.7123319296402</v>
+        <v>4.043187116398977</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>173.5578851713661</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>103.4646237464201</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.2178776215694</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>74.75769145492382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3266,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>99.59933623926747</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.6767922104164563</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3326,10 +3328,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3439,7 +3441,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>20.84901245549815</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>157.7822070347172</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3512,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>199.7325946875371</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>168.1158122680962</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.75769145492396</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>15.32691334752921</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3746,16 +3748,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>192.3249920210341</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680963</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>136.9968647819699</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,13 +3957,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>53.7634345605265</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>210.6180377869401</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>206.3841310744967</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>831.1952082980224</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="C2" t="n">
-        <v>462.2326913576106</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="D2" t="n">
-        <v>462.2326913576106</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2326913576106</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="F2" t="n">
-        <v>51.2467865680031</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056584</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.50778578647</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="X2" t="n">
-        <v>1505.04202752539</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="Y2" t="n">
-        <v>1114.902695549579</v>
+        <v>820.2300801016544</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542602</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756897</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057882</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919905</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.93511215121</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748155</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924317</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756614</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>919.0821120619953</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>690.9462660988088</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>690.9462660988088</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>436.7089093706072</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>228.8574091650744</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>978.9391466333066</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C4" t="n">
-        <v>978.9391466333066</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>978.9391466333066</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>978.9391466333066</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>978.9391466333066</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>978.9391466333066</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>978.9391466333066</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936613</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.127174075598</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>2040.148693270334</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="U4" t="n">
-        <v>1751.030355774172</v>
+        <v>227.4292644420552</v>
       </c>
       <c r="V4" t="n">
-        <v>1496.345867568285</v>
+        <v>227.4292644420552</v>
       </c>
       <c r="W4" t="n">
-        <v>1206.928697531324</v>
+        <v>227.4292644420552</v>
       </c>
       <c r="X4" t="n">
-        <v>978.9391466333066</v>
+        <v>227.4292644420552</v>
       </c>
       <c r="Y4" t="n">
-        <v>978.9391466333066</v>
+        <v>202.7455752303602</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1567.784838233996</v>
+        <v>761.8960637338266</v>
       </c>
       <c r="C5" t="n">
-        <v>1567.784838233996</v>
+        <v>761.8960637338266</v>
       </c>
       <c r="D5" t="n">
-        <v>1567.784838233996</v>
+        <v>761.8960637338266</v>
       </c>
       <c r="E5" t="n">
-        <v>1181.996585635751</v>
+        <v>761.8960637338266</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>761.8960637338266</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>345.4438024257013</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>107.8290791267618</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>269.6240911917569</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>507.2468724099484</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>803.3174389675509</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1108.792545203136</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>1383.90876451977</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>1584.213091808873</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>1488.130477265021</v>
       </c>
       <c r="W5" t="n">
-        <v>1954.384678298117</v>
+        <v>1135.361821994906</v>
       </c>
       <c r="X5" t="n">
-        <v>1954.384678298117</v>
+        <v>761.8960637338266</v>
       </c>
       <c r="Y5" t="n">
-        <v>1954.384678298117</v>
+        <v>761.8960637338266</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>357.7241497953079</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>183.2711205141809</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>183.2711205141809</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>183.2711205141809</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>183.2711205141809</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.5587479084195</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>67.92677704067708</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>121.7846078506388</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>243.2077001209177</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919905</v>
+        <v>452.7985733737483</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.93511215121</v>
+        <v>716.7381048692356</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748155</v>
+        <v>1002.071975302568</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924317</v>
+        <v>1240.876927054027</v>
       </c>
       <c r="P6" t="n">
-        <v>2309.473409756614</v>
+        <v>1413.205888007736</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>1490.841830594768</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>1262.725413725739</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1027.573305493996</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>773.3359487657947</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>565.4844485602619</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>357.7241497953079</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>367.9721493962184</v>
+        <v>788.7626584999872</v>
       </c>
       <c r="C7" t="n">
-        <v>367.9721493962184</v>
+        <v>619.8264755720803</v>
       </c>
       <c r="D7" t="n">
-        <v>367.9721493962184</v>
+        <v>469.7098361597446</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962184</v>
+        <v>469.7098361597446</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>469.7098361597446</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>301.3880637528684</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>149.6679752034538</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>35.96388306992289</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>169.472972355726</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>395.84507567387</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>644.9118420064103</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>893.4909737490111</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1107.077740097166</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1266.31743473321</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>972.9993576026061</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.181696033246</v>
+        <v>972.9993576026061</v>
       </c>
       <c r="U7" t="n">
-        <v>1140.063358537083</v>
+        <v>972.9993576026061</v>
       </c>
       <c r="V7" t="n">
-        <v>885.3788703311964</v>
+        <v>972.9993576026061</v>
       </c>
       <c r="W7" t="n">
-        <v>595.9617002942357</v>
+        <v>972.9993576026061</v>
       </c>
       <c r="X7" t="n">
-        <v>367.9721493962184</v>
+        <v>972.9993576026061</v>
       </c>
       <c r="Y7" t="n">
-        <v>367.9721493962184</v>
+        <v>970.4111233302269</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1785.600156360221</v>
+        <v>1412.134398099143</v>
       </c>
       <c r="C8" t="n">
-        <v>1416.637639419809</v>
+        <v>1412.134398099143</v>
       </c>
       <c r="D8" t="n">
-        <v>1058.371940813058</v>
+        <v>1053.868699492392</v>
       </c>
       <c r="E8" t="n">
-        <v>672.5836882148142</v>
+        <v>668.0804468941478</v>
       </c>
       <c r="F8" t="n">
-        <v>261.5977834252066</v>
+        <v>257.0945421045403</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
         <v>795.755353087291</v>
@@ -4814,40 +4816,40 @@
         <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400154</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y8" t="n">
-        <v>2172.199996424342</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="9">
@@ -4857,55 +4859,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>590.2049751143504</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>884.9085321458222</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4914,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1006.01552520271</v>
+        <v>934.7929217761711</v>
       </c>
       <c r="C10" t="n">
-        <v>837.079342274803</v>
+        <v>765.8567388482642</v>
       </c>
       <c r="D10" t="n">
-        <v>686.9627028624673</v>
+        <v>615.7400994359284</v>
       </c>
       <c r="E10" t="n">
-        <v>539.0496092800742</v>
+        <v>467.8270058535353</v>
       </c>
       <c r="F10" t="n">
-        <v>392.1596617821638</v>
+        <v>467.8270058535353</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>299.8405411618139</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>151.1016430253201</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="X10" t="n">
-        <v>1408.45656917648</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="Y10" t="n">
-        <v>1187.66399003295</v>
+        <v>1116.441386606411</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2303.170539913434</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5063,28 +5065,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V11" t="n">
-        <v>3079.909711953368</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="W11" t="n">
-        <v>3079.909711953368</v>
+        <v>2766.859418723278</v>
       </c>
       <c r="X11" t="n">
-        <v>3079.909711953368</v>
+        <v>2766.859418723278</v>
       </c>
       <c r="Y11" t="n">
-        <v>2689.770379977556</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5117,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5173,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>362.8175152271522</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C13" t="n">
-        <v>362.8175152271522</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="D13" t="n">
-        <v>362.8175152271522</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="E13" t="n">
-        <v>362.8175152271522</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="F13" t="n">
-        <v>362.8175152271522</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>74.18997604374653</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5221,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368017</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621301</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251695</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271522</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y13" t="n">
-        <v>362.8175152271522</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5306,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V14" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>3215.315153136266</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X14" t="n">
-        <v>3121.906610713899</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="15">
@@ -5346,37 +5348,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5410,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>590.8070661251695</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C16" t="n">
-        <v>590.8070661251695</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D16" t="n">
-        <v>590.8070661251695</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E16" t="n">
-        <v>590.8070661251695</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5461,25 +5463,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368017</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621301</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251695</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X16" t="n">
-        <v>590.8070661251695</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y16" t="n">
-        <v>590.8070661251695</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.7704558796256</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="C17" t="n">
-        <v>552.807938939214</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D17" t="n">
-        <v>194.5422403324635</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E17" t="n">
-        <v>66.51211643218342</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F17" t="n">
-        <v>66.51211643218342</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5525,10 +5527,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296686</v>
@@ -5540,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>3095.109771607697</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.509627919559</v>
+        <v>2721.644013346617</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943747</v>
+        <v>2331.504681370805</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>880.2242361621296</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="C19" t="n">
-        <v>772.5608581015648</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D19" t="n">
-        <v>772.5608581015648</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F19" t="n">
         <v>477.7578170212613</v>
@@ -5698,25 +5700,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1652.290070135896</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1652.290070135896</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.908724368016</v>
+        <v>1652.290070135896</v>
       </c>
       <c r="V19" t="n">
-        <v>880.2242361621296</v>
+        <v>1397.605581930009</v>
       </c>
       <c r="W19" t="n">
-        <v>880.2242361621296</v>
+        <v>1108.188411893048</v>
       </c>
       <c r="X19" t="n">
-        <v>880.2242361621296</v>
+        <v>880.1988609950312</v>
       </c>
       <c r="Y19" t="n">
-        <v>880.2242361621296</v>
+        <v>659.406281851501</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1678.62132134232</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C20" t="n">
-        <v>1678.62132134232</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.35562273557</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="E20" t="n">
-        <v>934.5673701373257</v>
+        <v>535.9822032813809</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>124.9962984917733</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.60582160917</v>
@@ -5783,19 +5785,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W20" t="n">
         <v>2071.975386180638</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y20" t="n">
-        <v>1678.62132134232</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>917.616325937273</v>
+        <v>498.9890585374015</v>
       </c>
       <c r="C22" t="n">
-        <v>748.6801430093661</v>
+        <v>498.9890585374015</v>
       </c>
       <c r="D22" t="n">
-        <v>604.8580214762837</v>
+        <v>498.9890585374015</v>
       </c>
       <c r="E22" t="n">
-        <v>456.9449278938906</v>
+        <v>351.0759649550084</v>
       </c>
       <c r="F22" t="n">
-        <v>310.0549803959802</v>
+        <v>351.0759649550084</v>
       </c>
       <c r="G22" t="n">
         <v>310.0549803959802</v>
@@ -5905,10 +5907,10 @@
         <v>163.837793613838</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
         <v>315.6219318279954</v>
@@ -5932,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1837.464090846021</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1837.464090846021</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V22" t="n">
-        <v>1837.464090846021</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W22" t="n">
-        <v>1548.04692080906</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X22" t="n">
-        <v>1320.057369911043</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y22" t="n">
-        <v>1099.264790767513</v>
+        <v>680.6375233676413</v>
       </c>
     </row>
     <row r="23">
@@ -5984,16 +5986,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001389</v>
@@ -6014,25 +6016,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794323</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450752</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W23" t="n">
-        <v>2424.744041450752</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X23" t="n">
-        <v>2424.744041450752</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="Y23" t="n">
-        <v>2424.744041450752</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6099,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>459.8449442241111</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C25" t="n">
-        <v>459.8449442241111</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D25" t="n">
-        <v>459.8449442241111</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E25" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
         <v>315.6219318279954</v>
@@ -6169,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S25" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T25" t="n">
-        <v>1513.842048484845</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U25" t="n">
-        <v>1224.739181610489</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V25" t="n">
-        <v>970.0546934046018</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W25" t="n">
-        <v>680.6375233676413</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X25" t="n">
-        <v>680.6375233676413</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="Y25" t="n">
-        <v>459.8449442241111</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>921.7704558796252</v>
+        <v>1204.726236768953</v>
       </c>
       <c r="C26" t="n">
-        <v>552.8079389392135</v>
+        <v>835.7637198285415</v>
       </c>
       <c r="D26" t="n">
-        <v>194.542240332463</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E26" t="n">
-        <v>194.542240332463</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F26" t="n">
-        <v>194.542240332463</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G26" t="n">
-        <v>194.542240332463</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
@@ -6227,13 +6229,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6251,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3292.293186409815</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>3038.762709683652</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450753</v>
+        <v>2707.699822340081</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180638</v>
+        <v>2354.931167069967</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.509627919559</v>
+        <v>1981.465408808887</v>
       </c>
       <c r="Y26" t="n">
-        <v>1308.370295943747</v>
+        <v>1591.326076833075</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>880.2242361621296</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C28" t="n">
-        <v>880.2242361621296</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D28" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E28" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
         <v>66.5121164321834</v>
@@ -6406,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U28" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V28" t="n">
-        <v>880.2242361621296</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W28" t="n">
-        <v>880.2242361621296</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X28" t="n">
-        <v>880.2242361621296</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y28" t="n">
-        <v>880.2242361621296</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1976.204921733553</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C29" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6488,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V29" t="n">
-        <v>2719.112908979479</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W29" t="n">
-        <v>2366.344253709365</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X29" t="n">
-        <v>2366.344253709365</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y29" t="n">
-        <v>1976.204921733553</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
         <v>66.5121164321834</v>
@@ -6573,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6582,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>370.0144869816389</v>
+        <v>684.4520072430315</v>
       </c>
       <c r="C31" t="n">
-        <v>370.0144869816389</v>
+        <v>515.5158243151246</v>
       </c>
       <c r="D31" t="n">
-        <v>370.0144869816389</v>
+        <v>365.3991849027889</v>
       </c>
       <c r="E31" t="n">
-        <v>370.0144869816389</v>
+        <v>217.4860913203958</v>
       </c>
       <c r="F31" t="n">
-        <v>370.0144869816389</v>
+        <v>70.5961438224854</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
         <v>66.5121164321834</v>
@@ -6643,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U31" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V31" t="n">
-        <v>880.2242361621296</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W31" t="n">
-        <v>590.8070661251691</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X31" t="n">
-        <v>590.8070661251691</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y31" t="n">
-        <v>370.0144869816389</v>
+        <v>866.1004720732712</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1930.094988518961</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C32" t="n">
-        <v>1561.13247157855</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D32" t="n">
-        <v>1202.866772971799</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>817.078520373555</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0926155839475</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
@@ -6725,25 +6727,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W32" t="n">
-        <v>2320.234320494773</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X32" t="n">
-        <v>2320.234320494773</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y32" t="n">
-        <v>1930.094988518961</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="33">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>142.0249360836216</v>
+        <v>1772.140244377707</v>
       </c>
       <c r="C34" t="n">
-        <v>142.0249360836216</v>
+        <v>1632.526226578142</v>
       </c>
       <c r="D34" t="n">
-        <v>142.0249360836216</v>
+        <v>1632.526226578142</v>
       </c>
       <c r="E34" t="n">
-        <v>142.0249360836216</v>
+        <v>1632.526226578142</v>
       </c>
       <c r="F34" t="n">
-        <v>142.0249360836216</v>
+        <v>1632.526226578142</v>
       </c>
       <c r="G34" t="n">
-        <v>142.0249360836216</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H34" t="n">
-        <v>142.0249360836216</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J34" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L34" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N34" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O34" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P34" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>2946.672497492341</v>
       </c>
       <c r="V34" t="n">
-        <v>880.2242361621296</v>
+        <v>2691.988009286455</v>
       </c>
       <c r="W34" t="n">
-        <v>590.8070661251691</v>
+        <v>2402.570839249494</v>
       </c>
       <c r="X34" t="n">
-        <v>362.8175152271517</v>
+        <v>2174.581288351476</v>
       </c>
       <c r="Y34" t="n">
-        <v>142.0249360836216</v>
+        <v>1953.788709207946</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>921.7704558796252</v>
+        <v>1648.004869410821</v>
       </c>
       <c r="C35" t="n">
-        <v>821.1650657389509</v>
+        <v>1279.042352470409</v>
       </c>
       <c r="D35" t="n">
-        <v>821.1650657389509</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>821.1650657389509</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.975386180638</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.509627919559</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y35" t="n">
-        <v>1308.370295943747</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="36">
@@ -7005,13 +7007,13 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228006</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>848.0708164780106</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C37" t="n">
-        <v>679.1346335501037</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D37" t="n">
-        <v>529.0179941377679</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E37" t="n">
-        <v>381.1049005553748</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574644</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="U37" t="n">
-        <v>1927.294548088493</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="V37" t="n">
-        <v>1767.918581386758</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="W37" t="n">
-        <v>1478.501411349798</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X37" t="n">
-        <v>1250.51186045178</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y37" t="n">
-        <v>1029.71928130825</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1381.278680221567</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C38" t="n">
-        <v>1012.316163281155</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D38" t="n">
-        <v>654.0504646744046</v>
+        <v>1448.172675760994</v>
       </c>
       <c r="E38" t="n">
-        <v>268.2622120761603</v>
+        <v>1062.38442316275</v>
       </c>
       <c r="F38" t="n">
-        <v>66.5121164321834</v>
+        <v>651.3985183731427</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>236.3260682181391</v>
       </c>
       <c r="H38" t="n">
         <v>66.5121164321834</v>
@@ -7172,10 +7174,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7199,25 +7201,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V38" t="n">
-        <v>2884.252265792694</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W38" t="n">
-        <v>2531.48361052258</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X38" t="n">
-        <v>2158.0178522615</v>
+        <v>2952.14006334809</v>
       </c>
       <c r="Y38" t="n">
-        <v>1767.878520285688</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="39">
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1464.823389952861</v>
+        <v>2078.679253373406</v>
       </c>
       <c r="C40" t="n">
-        <v>1464.823389952861</v>
+        <v>1909.7430704455</v>
       </c>
       <c r="D40" t="n">
-        <v>1464.823389952861</v>
+        <v>1759.626431033164</v>
       </c>
       <c r="E40" t="n">
-        <v>1464.823389952861</v>
+        <v>1611.713337450771</v>
       </c>
       <c r="F40" t="n">
         <v>1464.823389952861</v>
@@ -7357,25 +7359,25 @@
         <v>3235.775364366698</v>
       </c>
       <c r="S40" t="n">
-        <v>3044.089480193524</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="T40" t="n">
-        <v>2822.32286476305</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="U40" t="n">
-        <v>2533.219997888694</v>
+        <v>2998.527018282154</v>
       </c>
       <c r="V40" t="n">
-        <v>2278.535509682807</v>
+        <v>2998.527018282154</v>
       </c>
       <c r="W40" t="n">
-        <v>1989.118339645846</v>
+        <v>2709.109848245193</v>
       </c>
       <c r="X40" t="n">
-        <v>1761.128788747829</v>
+        <v>2481.120297347176</v>
       </c>
       <c r="Y40" t="n">
-        <v>1540.336209604299</v>
+        <v>2260.327718203646</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1091.323932370578</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C41" t="n">
-        <v>722.3614154301667</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>364.0957168234162</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>364.0957168234162</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
         <v>66.5121164321834</v>
@@ -7409,25 +7411,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7439,22 +7441,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>2925.360405285277</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V41" t="n">
-        <v>2594.297517941706</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W41" t="n">
-        <v>2241.528862671592</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X41" t="n">
-        <v>1868.063104410512</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y41" t="n">
-        <v>1477.9237724347</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>827.064395508012</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>373.8289708570296</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C43" t="n">
-        <v>204.8927879291227</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D43" t="n">
-        <v>66.5121164321834</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E43" t="n">
-        <v>66.5121164321834</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F43" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I43" t="n">
         <v>66.5121164321834</v>
@@ -7603,16 +7605,16 @@
         <v>1548.361223971664</v>
       </c>
       <c r="V43" t="n">
-        <v>1293.676735765777</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="W43" t="n">
-        <v>1004.259565728817</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="X43" t="n">
-        <v>776.2700148307995</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y43" t="n">
-        <v>555.4774356872693</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="44">
@@ -7646,25 +7648,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7725,13 +7727,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>382.3382468580007</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C46" t="n">
-        <v>213.4020639300938</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D46" t="n">
-        <v>213.4020639300938</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E46" t="n">
-        <v>213.4020639300938</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F46" t="n">
-        <v>66.5121164321834</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H46" t="n">
         <v>66.5121164321834</v>
@@ -7831,25 +7833,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242373</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="U46" t="n">
-        <v>1134.908724368016</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="V46" t="n">
-        <v>880.2242361621296</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="W46" t="n">
-        <v>590.8070661251691</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X46" t="n">
-        <v>382.3382468580007</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y46" t="n">
-        <v>382.3382468580007</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111062</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>26.19461818159743</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>63.37360602116108</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9393975111062</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878351</v>
+        <v>168.743458178065</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101.86342928444</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>116.9617832120865</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22674,16 +22676,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>78.57783867556559</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -22702,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22717,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>103.0154349816518</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22759,19 +22761,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>194.1478010325167</v>
       </c>
     </row>
     <row r="5">
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22790,10 +22792,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22802,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>94.24014755885167</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>131.4054833658572</v>
       </c>
       <c r="W5" t="n">
-        <v>75.118123586531</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22860,22 +22862,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.1951016978327</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -22911,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -22939,13 +22941,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22960,7 +22962,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>15.55691619637301</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>216.0223014224394</v>
       </c>
     </row>
     <row r="8">
@@ -23021,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23033,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>203.3002158843225</v>
+        <v>207.7584247917822</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -23084,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23188,16 +23190,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>80.85095794181458</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>5.940287311156737</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -23242,7 +23244,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>193.700871699066</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>351.4967200707146</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>113.7908987761681</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>137.1539338988733</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>255.1805474109837</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>277.256643680326</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>33.50229141006213</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23735,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>255.1805474109846</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -23780,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>121.0498792159533</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>60.66007681866868</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>6.446744828418417</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>353.0223854144594</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>366.5485151445882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24127,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>6.231572700460788</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>125.4150335455903</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>303.9530049144612</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24254,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>377.0852116427184</v>
       </c>
     </row>
     <row r="24">
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>68.48131941452019</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>11.61860823624244</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24452,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>209.4348714989696</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>170.938461292259</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>42.02872873825321</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24695,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>291.4251788534393</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>181.1251564493167</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>10.31347632938807</v>
+        <v>161.9826211426293</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>181.1251564493169</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>245.7763449709929</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>29.02894347705839</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>21.59472895491427</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25154,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>265.6735555317401</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.0062494102665</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25214,10 +25216,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>198.699936820671</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>94.3554362891108</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25400,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>207.1434510541743</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>126.4919521192243</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -25448,10 +25450,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25597,16 +25599,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>270.8849248580837</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25634,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25679,16 +25681,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>58.67017993786789</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>181.1251564493167</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>11.61860823624247</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>171.9462208285107</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26071,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>8.930911489229118</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>19.32552431454047</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>782991.1269625623</v>
+        <v>523336.9476551463</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>782991.1269625623</v>
+        <v>632668.5581402066</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>782991.1269625623</v>
+        <v>782991.1269625624</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>861641.9069024866</v>
+        <v>861641.9069024867</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>861641.9069024866</v>
+        <v>861641.9069024867</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>861641.9069024865</v>
+        <v>861641.9069024866</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>861641.9069024867</v>
+        <v>861641.9069024866</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>861641.9069024865</v>
+        <v>861641.9069024867</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>861641.9069024866</v>
+        <v>861641.9069024867</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>861641.9069024866</v>
+        <v>861641.9069024868</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>861641.9069024866</v>
+        <v>861641.9069024868</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>861641.9069024866</v>
+        <v>861641.9069024867</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>203966.5811971124</v>
+      </c>
+      <c r="C2" t="n">
+        <v>247001.9304687609</v>
+      </c>
+      <c r="D2" t="n">
         <v>305971.6304943087</v>
-      </c>
-      <c r="C2" t="n">
-        <v>305971.6304943087</v>
-      </c>
-      <c r="D2" t="n">
-        <v>305971.6304943085</v>
       </c>
       <c r="E2" t="n">
         <v>340997.0989709207</v>
       </c>
       <c r="F2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="G2" t="n">
         <v>340997.0989709205</v>
@@ -26332,28 +26334,28 @@
         <v>340997.0989709205</v>
       </c>
       <c r="I2" t="n">
+        <v>340997.0989709206</v>
+      </c>
+      <c r="J2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="K2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="L2" t="n">
         <v>340997.0989709205</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>340997.0989709207</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="O2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="P2" t="n">
         <v>340997.0989709206</v>
-      </c>
-      <c r="L2" t="n">
-        <v>340997.0989709206</v>
-      </c>
-      <c r="M2" t="n">
-        <v>340997.0989709206</v>
-      </c>
-      <c r="N2" t="n">
-        <v>340997.0989709204</v>
-      </c>
-      <c r="O2" t="n">
-        <v>340997.0989709204</v>
-      </c>
-      <c r="P2" t="n">
-        <v>340997.0989709204</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>174787.7031330587</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>225670.6156307091</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.979817191</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>40638.73104112947</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>55419.2587781059</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341494</v>
+        <v>47552.26579341488</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>13649.17455297509</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15515.03330562077</v>
+      </c>
+      <c r="D4" t="n">
         <v>18583.86599059036</v>
       </c>
-      <c r="C4" t="n">
-        <v>18583.86599059036</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18583.86599059035</v>
-      </c>
       <c r="E4" t="n">
-        <v>9770.403102091463</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="F4" t="n">
-        <v>9770.403102091463</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="G4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="H4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="I4" t="n">
-        <v>9770.403102091437</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="J4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="K4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="L4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="M4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="N4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="O4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="P4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>75611.38525919239</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26500,7 +26502,7 @@
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
         <v>74306.34056139328</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-920301.7915120458</v>
+        <v>-552818.377151322</v>
       </c>
       <c r="C6" t="n">
-        <v>194449.9920638736</v>
+        <v>-18912.191229111</v>
       </c>
       <c r="D6" t="n">
-        <v>194449.9920638734</v>
+        <v>-31220.62356683555</v>
       </c>
       <c r="E6" t="n">
-        <v>74847.37549024494</v>
+        <v>74847.37549024534</v>
       </c>
       <c r="F6" t="n">
-        <v>256920.3553074359</v>
+        <v>256920.3553074357</v>
       </c>
       <c r="G6" t="n">
-        <v>256920.3553074359</v>
+        <v>256920.3553074357</v>
       </c>
       <c r="H6" t="n">
         <v>256920.3553074358</v>
@@ -26543,16 +26545,16 @@
         <v>256920.3553074358</v>
       </c>
       <c r="J6" t="n">
-        <v>89315.17749745332</v>
+        <v>187921.2008883216</v>
       </c>
       <c r="K6" t="n">
-        <v>256920.3553074358</v>
+        <v>216281.6242663062</v>
       </c>
       <c r="L6" t="n">
-        <v>256920.3553074358</v>
+        <v>201501.0965293298</v>
       </c>
       <c r="M6" t="n">
-        <v>209368.0895140209</v>
+        <v>209368.089514021</v>
       </c>
       <c r="N6" t="n">
         <v>256920.3553074357</v>
@@ -26561,7 +26563,7 @@
         <v>256920.3553074357</v>
       </c>
       <c r="P6" t="n">
-        <v>256920.3553074356</v>
+        <v>256920.3553074358</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
@@ -26820,7 +26822,7 @@
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022925</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>135.9259427281318</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>184.0839356199292</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757594</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>157.9012582804757</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>218.9696938180571</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>157.9012582804757</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>218.9696938180571</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>157.9012582804757</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>218.9696938180571</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.014998820090892</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>30.87735666625586</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>255.8942561066896</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>383.5191561611372</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>475.7894263014939</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>529.4074115682853</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>537.9737769658685</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>507.9933824485897</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>433.5605990775957</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>325.5859538330906</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>189.3909196325347</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>68.70428561282128</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>13.19815733494789</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2411999056072713</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>1.613166585674105</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>15.57979307743149</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>55.54104253307773</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>152.4088658859908</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>260.4910271261558</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>350.2623325605112</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>408.7396212911974</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>419.5577428240734</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>383.8133674257156</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>308.0440649433297</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>205.919299602891</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>29.96386179969223</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>6.502193386993428</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1061293806364543</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.352424675651428</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>12.02428484351907</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>40.67109842777204</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>95.61642456855594</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>157.1271577711386</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>201.0686649600314</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>211.9987152932506</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>206.9578596840045</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>191.15908051844</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>163.5696171351508</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>113.2471244311391</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>60.80993132519963</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>23.56907366567078</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>5.778541795965189</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.07376861867189614</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095016</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32555,7 +32557,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -32798,7 +32800,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33983,7 +33985,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34135,7 +34137,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623184</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
         <v>769.2673490574995</v>
@@ -34208,7 +34210,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026443</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34217,7 +34219,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34366,7 +34368,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953979</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
@@ -34445,7 +34447,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419607</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>74.84835158000331</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>163.4293051161566</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>240.0230113315067</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>299.0611783410126</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>308.5607133692776</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>277.895171026903</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>202.3276033223262</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>103.2802639586411</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>88.94484524048515</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>122.6495881517968</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>211.707952780637</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>266.6055873691791</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>288.2160307407401</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>241.2171229812711</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>255.4201198419607</v>
+        <v>276.0148132527186</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>2.257244451883167</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>134.8576659452557</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>228.6586902203475</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>251.5825922550912</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>251.0900320632331</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>215.7442084324797</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>160.8481764000443</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>27.08508117944473</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313199</v>
+        <v>355.3309544215498</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,13 +35269,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129106</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36203,7 +36205,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36379,7 +36381,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222342</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36446,7 +36448,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597693</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37631,7 +37633,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37783,7 +37785,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923311</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597762</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37865,7 +37867,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>716482.3826239923</v>
+        <v>679194.4801399788</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12433859.31651125</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6544539.720854484</v>
+        <v>5739665.974240763</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9332082.58268166</v>
+        <v>9736277.693549033</v>
       </c>
     </row>
     <row r="11">
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>113.1568024905092</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>232.2791855053265</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>135.3343964518637</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>116.2631489093112</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>63.22700662133222</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>24.43685231957807</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>310.1681053992892</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2877386950441</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>196.3467751042778</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>17.53524887970381</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>96.65565115906497</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833735</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6625353078282</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8352527003384</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4475243713015</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.562351929655376</v>
+        <v>103.3387326418228</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>203.7892779811718</v>
+        <v>393.1510457267877</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.85630789274384</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>99.0171371930436</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>12.27673055432736</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>34.74121858533898</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>45.2808584968836</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>7.60108101544749</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>126.7498226612781</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>195.3635206396373</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492379</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>18.26879610204004</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>332.5438833275248</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>228.1910895014597</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>183.3222805030235</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>131.573039120795</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>43.98226791336776</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>57.89934023899399</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>40.61077471343791</v>
+        <v>27.65913193862759</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2335,10 +2335,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2380,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.152727013335143</v>
+        <v>157.4513740875575</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>17.84935903930831</v>
       </c>
       <c r="U25" t="n">
-        <v>274.5932299693704</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>238.0876352961026</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>32.9795088473611</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>63.72703424640825</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>37.59617708813238</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>19.68942351146622</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>168.1158122680963</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>4.043187116398977</v>
+        <v>90.57445924393056</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>173.5578851713661</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>229.7965692041371</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>138.2178776215694</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486467</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6767922104164563</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>188.219639431212</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>112.9416910403795</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>20.84901245549815</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>169.501588699314</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>168.1158122680962</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,10 +3672,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>15.32691334752921</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>213.053865971316</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>168.1158122680963</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>178.9066238691943</v>
       </c>
       <c r="X43" t="n">
-        <v>53.7634345605265</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3985,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>126.7498226612768</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>126.5388824951718</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>6.380068175848154</v>
       </c>
       <c r="T46" t="n">
-        <v>210.6180377869401</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>820.2300801016544</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="C2" t="n">
-        <v>820.2300801016544</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="D2" t="n">
-        <v>820.2300801016544</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8524235344764</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672984</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991315</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358411</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>2448.039527904692</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>2239.293886510516</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>2239.293886510516</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>1908.230999166945</v>
       </c>
       <c r="W2" t="n">
-        <v>820.2300801016544</v>
+        <v>1555.462343896831</v>
       </c>
       <c r="X2" t="n">
-        <v>820.2300801016544</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="Y2" t="n">
-        <v>820.2300801016544</v>
+        <v>1181.996585635751</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.09711040012049</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>21.09711040012049</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012049</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>919.0821120619953</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>690.9462660988088</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>690.9462660988088</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>436.7089093706072</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>228.8574091650744</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.09711040012049</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.09711040012049</v>
+        <v>642.7634789947318</v>
       </c>
       <c r="C4" t="n">
-        <v>21.09711040012049</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012049</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1572.580456820626</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512189</v>
+        <v>1375.951708980487</v>
       </c>
       <c r="T4" t="n">
-        <v>493.8069210092332</v>
+        <v>1152.973228175223</v>
       </c>
       <c r="U4" t="n">
-        <v>227.4292644420552</v>
+        <v>1152.973228175223</v>
       </c>
       <c r="V4" t="n">
-        <v>227.4292644420552</v>
+        <v>1152.973228175223</v>
       </c>
       <c r="W4" t="n">
-        <v>227.4292644420552</v>
+        <v>863.556058138262</v>
       </c>
       <c r="X4" t="n">
-        <v>227.4292644420552</v>
+        <v>863.556058138262</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.7455752303602</v>
+        <v>642.7634789947318</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>761.8960637338266</v>
+        <v>1935.292509403255</v>
       </c>
       <c r="C5" t="n">
-        <v>761.8960637338266</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D5" t="n">
-        <v>761.8960637338266</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E5" t="n">
-        <v>761.8960637338266</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F5" t="n">
-        <v>761.8960637338266</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>345.4438024257013</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>33.72921106255855</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>33.72921106255855</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>107.8290791267618</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>269.6240911917569</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>507.2468724099484</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>803.3174389675509</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1108.792545203136</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>1383.90876451977</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>1584.213091808873</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>1686.460553127927</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>1686.460553127927</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>1686.460553127927</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>1686.460553127927</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>1686.460553127927</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>1488.130477265021</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W5" t="n">
-        <v>1135.361821994906</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="X5" t="n">
-        <v>761.8960637338266</v>
+        <v>1935.292509403255</v>
       </c>
       <c r="Y5" t="n">
-        <v>761.8960637338266</v>
+        <v>1935.292509403255</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>357.7241497953079</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>183.2711205141809</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>183.2711205141809</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>183.2711205141809</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>183.2711205141809</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5587479084195</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H6" t="n">
-        <v>67.92677704067708</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I6" t="n">
-        <v>33.72921106255855</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>121.7846078506388</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>243.2077001209177</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L6" t="n">
-        <v>452.7985733737483</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M6" t="n">
-        <v>716.7381048692356</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1002.071975302568</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1240.876927054027</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>1413.205888007736</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
-        <v>1686.460553127927</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>1686.460553127927</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>1686.460553127927</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>1490.841830594768</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>1262.725413725739</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1027.573305493996</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>773.3359487657947</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>565.4844485602619</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>357.7241497953079</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>788.7626584999872</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C7" t="n">
-        <v>619.8264755720803</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>469.7098361597446</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>469.7098361597446</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>469.7098361597446</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>301.3880637528684</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>149.6679752034538</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>33.72921106255855</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>35.96388306992289</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>169.472972355726</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>395.84507567387</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>644.9118420064103</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>893.4909737490111</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1107.077740097166</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1266.31743473321</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1293.13166510086</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1175.471604442305</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>972.9993576026061</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>972.9993576026061</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>972.9993576026061</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V7" t="n">
-        <v>972.9993576026061</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W7" t="n">
-        <v>972.9993576026061</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="X7" t="n">
-        <v>972.9993576026061</v>
+        <v>155.6293447920665</v>
       </c>
       <c r="Y7" t="n">
-        <v>970.4111233302269</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1412.134398099143</v>
+        <v>514.7427041430115</v>
       </c>
       <c r="C8" t="n">
-        <v>1412.134398099143</v>
+        <v>514.7427041430115</v>
       </c>
       <c r="D8" t="n">
-        <v>1053.868699492392</v>
+        <v>514.7427041430115</v>
       </c>
       <c r="E8" t="n">
-        <v>668.0804468941478</v>
+        <v>514.7427041430115</v>
       </c>
       <c r="F8" t="n">
-        <v>257.0945421045403</v>
+        <v>514.7427041430115</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400156</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400156</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139076</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y8" t="n">
-        <v>1798.734238163264</v>
+        <v>901.3425442071332</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4871,43 +4871,43 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143504</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458222</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4922,7 +4922,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>934.7929217761711</v>
+        <v>538.2860735999672</v>
       </c>
       <c r="C10" t="n">
-        <v>765.8567388482642</v>
+        <v>369.3498906720603</v>
       </c>
       <c r="D10" t="n">
-        <v>615.7400994359284</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E10" t="n">
-        <v>467.8270058535353</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
-        <v>467.8270058535353</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>299.8405411618139</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>151.1016430253201</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.233965749941</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.233965749941</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V10" t="n">
-        <v>1337.233965749941</v>
+        <v>827.7032436369277</v>
       </c>
       <c r="W10" t="n">
-        <v>1337.233965749941</v>
+        <v>538.2860735999672</v>
       </c>
       <c r="X10" t="n">
-        <v>1337.233965749941</v>
+        <v>538.2860735999672</v>
       </c>
       <c r="Y10" t="n">
-        <v>1116.441386606411</v>
+        <v>538.2860735999672</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>3119.628073993392</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>3119.628073993392</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2766.859418723278</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X11" t="n">
-        <v>2766.859418723278</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="12">
@@ -5111,16 +5111,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>241.8928126690276</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C13" t="n">
-        <v>241.8928126690276</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D13" t="n">
-        <v>241.8928126690276</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E13" t="n">
-        <v>241.8928126690276</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F13" t="n">
-        <v>241.8928126690276</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G13" t="n">
-        <v>74.18997604374653</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5241,10 +5241,10 @@
         <v>872.3234075408147</v>
       </c>
       <c r="X13" t="n">
-        <v>644.3338566427974</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y13" t="n">
-        <v>423.5412774992673</v>
+        <v>872.3234075408147</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.7704558796265</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C14" t="n">
-        <v>552.8079389392149</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D14" t="n">
-        <v>194.5422403324644</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E14" t="n">
-        <v>66.51211643218343</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218343</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218343</v>
@@ -5311,19 +5311,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.97538618064</v>
+        <v>2812.000515985501</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.50962791956</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943748</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
         <v>2407.411984886741</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218343</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218343</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218343</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F16" t="n">
         <v>66.51211643218343</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836216</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1944.904841306683</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C17" t="n">
-        <v>1575.942324366272</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D17" t="n">
-        <v>1575.942324366272</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E17" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5548,19 +5548,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W17" t="n">
-        <v>3095.109771607697</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X17" t="n">
-        <v>2721.644013346617</v>
+        <v>2345.840931351814</v>
       </c>
       <c r="Y17" t="n">
-        <v>2331.504681370805</v>
+        <v>1955.701599376002</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>477.7578170212613</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C19" t="n">
-        <v>477.7578170212613</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D19" t="n">
-        <v>477.7578170212613</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E19" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1652.290070135896</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1652.290070135896</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U19" t="n">
-        <v>1652.290070135896</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V19" t="n">
-        <v>1397.605581930009</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W19" t="n">
-        <v>1108.188411893048</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X19" t="n">
-        <v>880.1988609950312</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y19" t="n">
-        <v>659.406281851501</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.7704558796252</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C20" t="n">
-        <v>921.7704558796252</v>
+        <v>926.2736972002947</v>
       </c>
       <c r="D20" t="n">
-        <v>921.7704558796252</v>
+        <v>568.0079985935442</v>
       </c>
       <c r="E20" t="n">
-        <v>535.9822032813809</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F20" t="n">
-        <v>124.9962984917733</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943747</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="21">
@@ -5822,22 +5822,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>498.9890585374015</v>
+        <v>708.3064969624544</v>
       </c>
       <c r="C22" t="n">
-        <v>498.9890585374015</v>
+        <v>539.3703140345475</v>
       </c>
       <c r="D22" t="n">
-        <v>498.9890585374015</v>
+        <v>389.2536746222117</v>
       </c>
       <c r="E22" t="n">
-        <v>351.0759649550084</v>
+        <v>241.3405810398186</v>
       </c>
       <c r="F22" t="n">
-        <v>351.0759649550084</v>
+        <v>94.45063354190827</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5940,22 +5940,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1513.842048484845</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U22" t="n">
-        <v>1224.739181610489</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V22" t="n">
-        <v>970.0546934046018</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="W22" t="n">
-        <v>680.6375233676413</v>
+        <v>1157.088627004002</v>
       </c>
       <c r="X22" t="n">
-        <v>680.6375233676413</v>
+        <v>929.0990761059845</v>
       </c>
       <c r="Y22" t="n">
-        <v>680.6375233676413</v>
+        <v>708.3064969624544</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2345.167438673965</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C23" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U23" t="n">
-        <v>3072.075344883006</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V23" t="n">
-        <v>2741.012457539436</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W23" t="n">
-        <v>2741.012457539436</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X23" t="n">
-        <v>2741.012457539436</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="Y23" t="n">
-        <v>2731.767278738087</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="24">
@@ -6059,16 +6059,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>385.564938772426</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C25" t="n">
-        <v>216.6287558445191</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D25" t="n">
-        <v>66.5121164321834</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1837.464090846021</v>
+        <v>1909.264892493232</v>
       </c>
       <c r="U25" t="n">
-        <v>1560.097191887061</v>
+        <v>1620.162025618876</v>
       </c>
       <c r="V25" t="n">
-        <v>1305.412703681174</v>
+        <v>1365.477537412989</v>
       </c>
       <c r="W25" t="n">
-        <v>1015.995533644213</v>
+        <v>1076.060367376028</v>
       </c>
       <c r="X25" t="n">
-        <v>788.0059827461959</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y25" t="n">
-        <v>567.2134036026657</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1204.726236768953</v>
+        <v>1887.813801820605</v>
       </c>
       <c r="C26" t="n">
-        <v>835.7637198285415</v>
+        <v>1518.851284880193</v>
       </c>
       <c r="D26" t="n">
-        <v>477.498021221791</v>
+        <v>1518.851284880193</v>
       </c>
       <c r="E26" t="n">
-        <v>477.498021221791</v>
+        <v>1133.063032281949</v>
       </c>
       <c r="F26" t="n">
-        <v>66.5121164321834</v>
+        <v>722.0771274923411</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>307.0046773373376</v>
       </c>
       <c r="H26" t="n">
         <v>66.5121164321834</v>
@@ -6229,13 +6229,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6253,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3292.293186409815</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>3038.762709683652</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V26" t="n">
-        <v>2707.699822340081</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W26" t="n">
-        <v>2354.931167069967</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X26" t="n">
-        <v>1981.465408808887</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y26" t="n">
-        <v>1591.326076833075</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C28" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
-        <v>361.3151575124868</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
         <v>66.5121164321834</v>
@@ -6414,22 +6414,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>1927.294548088493</v>
+        <v>1862.923806425454</v>
       </c>
       <c r="U28" t="n">
-        <v>1638.191681214136</v>
+        <v>1573.820939551098</v>
       </c>
       <c r="V28" t="n">
-        <v>1600.215744761477</v>
+        <v>1319.136451345211</v>
       </c>
       <c r="W28" t="n">
-        <v>1310.798574724517</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="X28" t="n">
-        <v>1082.809023826499</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y28" t="n">
-        <v>862.0164446829692</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2005.586939522201</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C29" t="n">
-        <v>1636.624422581789</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912088</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>3155.791869823214</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X29" t="n">
-        <v>2782.326111562134</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>2392.186779586323</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>684.4520072430315</v>
+        <v>304.8914167017408</v>
       </c>
       <c r="C31" t="n">
-        <v>515.5158243151246</v>
+        <v>304.8914167017408</v>
       </c>
       <c r="D31" t="n">
-        <v>365.3991849027889</v>
+        <v>304.8914167017408</v>
       </c>
       <c r="E31" t="n">
-        <v>217.4860913203958</v>
+        <v>304.8914167017408</v>
       </c>
       <c r="F31" t="n">
-        <v>70.5961438224854</v>
+        <v>158.0014692038305</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U31" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V31" t="n">
-        <v>1383.507193008249</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W31" t="n">
-        <v>1094.090022971289</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X31" t="n">
-        <v>866.1004720732712</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="Y31" t="n">
-        <v>866.1004720732712</v>
+        <v>486.5398815319805</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1822.632236038042</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C32" t="n">
         <v>1453.669719097631</v>
       </c>
       <c r="D32" t="n">
-        <v>1278.358723975039</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>298.629863103029</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912089</v>
@@ -6724,19 +6724,19 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W32" t="n">
         <v>2972.837166339056</v>
@@ -6745,7 +6745,7 @@
         <v>2599.371408077976</v>
       </c>
       <c r="Y32" t="n">
-        <v>2209.232076102164</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1772.140244377707</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C34" t="n">
-        <v>1632.526226578142</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D34" t="n">
-        <v>1632.526226578142</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E34" t="n">
-        <v>1632.526226578142</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F34" t="n">
-        <v>1632.526226578142</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>3235.775364366698</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>3235.775364366698</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>2946.672497492341</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V34" t="n">
-        <v>2691.988009286455</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W34" t="n">
-        <v>2402.570839249494</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X34" t="n">
-        <v>2174.581288351476</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y34" t="n">
-        <v>1953.788709207946</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1648.004869410821</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C35" t="n">
-        <v>1279.042352470409</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D35" t="n">
-        <v>1278.358723975039</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296687</v>
@@ -6964,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W35" t="n">
-        <v>2424.744041450754</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X35" t="n">
-        <v>2424.744041450754</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y35" t="n">
-        <v>2034.604709474942</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="36">
@@ -7016,13 +7016,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>994.2880032601528</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C37" t="n">
-        <v>825.3518203322459</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D37" t="n">
-        <v>675.2351809199101</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E37" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
         <v>66.51211643218343</v>
@@ -7119,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1624.71859813194</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U37" t="n">
-        <v>1624.71859813194</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V37" t="n">
-        <v>1624.71859813194</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W37" t="n">
-        <v>1624.71859813194</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X37" t="n">
-        <v>1396.729047233923</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y37" t="n">
-        <v>1175.936468090393</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2175.400891308157</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C38" t="n">
-        <v>1806.438374367745</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="D38" t="n">
-        <v>1448.172675760994</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.38442316275</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>651.3985183731427</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>236.3260682181391</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
@@ -7183,43 +7183,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.60582160917</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W38" t="n">
-        <v>3325.60582160917</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X38" t="n">
-        <v>2952.14006334809</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y38" t="n">
-        <v>2562.000731372279</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="39">
@@ -7244,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2078.679253373406</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="C40" t="n">
-        <v>1909.7430704455</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D40" t="n">
-        <v>1759.626431033164</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E40" t="n">
-        <v>1611.713337450771</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F40" t="n">
-        <v>1464.823389952861</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>3235.775364366698</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>3014.008748936224</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U40" t="n">
-        <v>2998.527018282154</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V40" t="n">
-        <v>2998.527018282154</v>
+        <v>1231.299871817411</v>
       </c>
       <c r="W40" t="n">
-        <v>2709.109848245193</v>
+        <v>941.8827017804504</v>
       </c>
       <c r="X40" t="n">
-        <v>2481.120297347176</v>
+        <v>713.893150882433</v>
       </c>
       <c r="Y40" t="n">
-        <v>2260.327718203646</v>
+        <v>713.893150882433</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2005.586939522201</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C41" t="n">
-        <v>1636.624422581789</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>3155.791869823214</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X41" t="n">
-        <v>2782.326111562134</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y41" t="n">
-        <v>2392.186779586323</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="42">
@@ -7481,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1548.361223971664</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>1548.361223971664</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W43" t="n">
-        <v>1548.361223971664</v>
+        <v>981.0268160937408</v>
       </c>
       <c r="X43" t="n">
-        <v>1494.054724415577</v>
+        <v>753.0372651957234</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.262145272047</v>
+        <v>532.2446860521933</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.7704558796252</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C44" t="n">
-        <v>552.8079389392135</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D44" t="n">
-        <v>194.542240332463</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>66.5121164321834</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>66.5121164321834</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
         <v>589.2106210810553</v>
@@ -7657,7 +7657,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7666,34 +7666,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180638</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.509627919559</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y44" t="n">
-        <v>1308.370295943747</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="45">
@@ -7718,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>994.2880032601528</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C46" t="n">
-        <v>825.3518203322459</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D46" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E46" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1837.464090846021</v>
+        <v>1920.850034779555</v>
       </c>
       <c r="T46" t="n">
-        <v>1624.71859813194</v>
+        <v>1699.083419349081</v>
       </c>
       <c r="U46" t="n">
-        <v>1624.71859813194</v>
+        <v>1409.980552474725</v>
       </c>
       <c r="V46" t="n">
-        <v>1624.71859813194</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W46" t="n">
-        <v>1624.71859813194</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X46" t="n">
-        <v>1396.729047233923</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y46" t="n">
-        <v>1175.936468090393</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127237</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>26.19461818159743</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>63.37360602116108</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>168.743458178065</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>10.29541290828519</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>116.9617832120865</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,16 +22676,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>78.57783867556559</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -22704,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>38.33056579824141</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22761,19 +22761,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117134</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>194.1478010325167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>55.10478637171832</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885167</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,19 +22834,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.3157839734241</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8976922291835</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>131.4054833658572</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22862,22 +22862,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>118.1951016978327</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -22913,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -22941,13 +22941,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22956,13 +22956,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>216.0223014224394</v>
+        <v>115.245920710272</v>
       </c>
     </row>
     <row r="8">
@@ -23026,22 +23026,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>207.7584247917822</v>
+        <v>18.39665704616624</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -23187,7 +23187,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -23196,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>5.940287311156737</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>153.1205061307844</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23260,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>352.9961612166802</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>351.4967200707146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>134.5511216850537</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>137.1539338988733</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>255.1805474109837</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,13 +23551,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>153.8774480777757</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270135</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>128.1651665445291</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>50.18995833595579</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -23788,13 +23788,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>121.0498792159533</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>6.446744828418417</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>87.01161423129975</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>337.948102158894</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>353.0223854144594</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>125.4150335455903</v>
+        <v>138.3666763204006</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>377.0852116427184</v>
+        <v>228.7865645684961</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>201.6995902368609</v>
       </c>
       <c r="U25" t="n">
-        <v>11.61860823624244</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>56.52012909121785</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>170.938461292259</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24654,22 +24654,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>155.8219150297609</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>363.0444181520144</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>181.1251564493167</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>161.9826211426293</v>
+        <v>75.45134901509766</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24888,16 +24888,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>181.1251564493169</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>64.81119518318334</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>29.02894347705839</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>16.14213605696614</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.0062494102665</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>222.7020862222414</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>66.89028914155779</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>198.699936820671</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>185.1814529213689</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>126.4919521192243</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,10 +25450,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,10 +25560,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>270.8849248580837</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>39.08377735251202</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25690,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>181.1251564493167</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>107.6163744673967</v>
       </c>
       <c r="X43" t="n">
-        <v>171.9462208285107</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>255.180547410985</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>222.7020862222412</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>183.3889571555937</v>
       </c>
       <c r="T46" t="n">
-        <v>8.930911489229118</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>523336.9476551463</v>
+        <v>782991.1269625626</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>632668.5581402066</v>
+        <v>782991.1269625626</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>782991.1269625624</v>
+        <v>782991.1269625626</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>861641.9069024868</v>
+        <v>861641.9069024867</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>861641.9069024867</v>
+        <v>861641.9069024868</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>861641.9069024866</v>
+        <v>861641.9069024868</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>861641.9069024867</v>
+        <v>861641.9069024866</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>861641.9069024866</v>
+        <v>861641.9069024867</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>861641.9069024868</v>
+        <v>861641.9069024867</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>861641.9069024868</v>
+        <v>861641.9069024869</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>861641.9069024867</v>
+        <v>861641.9069024868</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>203966.5811971124</v>
+        <v>305971.6304943086</v>
       </c>
       <c r="C2" t="n">
-        <v>247001.9304687609</v>
+        <v>305971.6304943085</v>
       </c>
       <c r="D2" t="n">
         <v>305971.6304943087</v>
@@ -26331,22 +26331,22 @@
         <v>340997.0989709205</v>
       </c>
       <c r="H2" t="n">
+        <v>340997.0989709206</v>
+      </c>
+      <c r="I2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="J2" t="n">
+        <v>340997.0989709206</v>
+      </c>
+      <c r="K2" t="n">
+        <v>340997.0989709206</v>
+      </c>
+      <c r="L2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="M2" t="n">
         <v>340997.0989709205</v>
-      </c>
-      <c r="I2" t="n">
-        <v>340997.0989709206</v>
-      </c>
-      <c r="J2" t="n">
-        <v>340997.0989709204</v>
-      </c>
-      <c r="K2" t="n">
-        <v>340997.0989709204</v>
-      </c>
-      <c r="L2" t="n">
-        <v>340997.0989709205</v>
-      </c>
-      <c r="M2" t="n">
-        <v>340997.0989709207</v>
       </c>
       <c r="N2" t="n">
         <v>340997.0989709205</v>
@@ -26355,7 +26355,7 @@
         <v>340997.0989709205</v>
       </c>
       <c r="P2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709205</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>174787.7031330587</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>225670.6156307091</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>182072.9798171908</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>40638.73104112947</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>55419.2587781059</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341488</v>
+        <v>47552.26579341497</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13649.17455297509</v>
+        <v>18583.86599059036</v>
       </c>
       <c r="C4" t="n">
-        <v>15515.03330562077</v>
+        <v>18583.86599059036</v>
       </c>
       <c r="D4" t="n">
-        <v>18583.86599059036</v>
+        <v>18583.86599059035</v>
       </c>
       <c r="E4" t="n">
         <v>9770.403102091475</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>75611.38525919239</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26487,31 +26487,31 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-552818.377151322</v>
+        <v>-925529.2542339375</v>
       </c>
       <c r="C6" t="n">
-        <v>-18912.191229111</v>
+        <v>189222.5293419818</v>
       </c>
       <c r="D6" t="n">
-        <v>-31220.62356683555</v>
+        <v>189222.5293419819</v>
       </c>
       <c r="E6" t="n">
-        <v>74847.37549024534</v>
+        <v>71371.18619218406</v>
       </c>
       <c r="F6" t="n">
-        <v>256920.3553074357</v>
+        <v>253444.1660093747</v>
       </c>
       <c r="G6" t="n">
-        <v>256920.3553074357</v>
+        <v>253444.1660093747</v>
       </c>
       <c r="H6" t="n">
-        <v>256920.3553074358</v>
+        <v>253444.1660093748</v>
       </c>
       <c r="I6" t="n">
-        <v>256920.3553074358</v>
+        <v>253444.1660093749</v>
       </c>
       <c r="J6" t="n">
-        <v>187921.2008883216</v>
+        <v>85838.9881993923</v>
       </c>
       <c r="K6" t="n">
-        <v>216281.6242663062</v>
+        <v>253444.1660093748</v>
       </c>
       <c r="L6" t="n">
-        <v>201501.0965293298</v>
+        <v>253444.1660093746</v>
       </c>
       <c r="M6" t="n">
-        <v>209368.089514021</v>
+        <v>205891.9002159597</v>
       </c>
       <c r="N6" t="n">
-        <v>256920.3553074357</v>
+        <v>253444.1660093747</v>
       </c>
       <c r="O6" t="n">
-        <v>256920.3553074357</v>
+        <v>253444.1660093747</v>
       </c>
       <c r="P6" t="n">
-        <v>256920.3553074358</v>
+        <v>253444.1660093747</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>749.98095649761</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>421.6151382819818</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>135.9259427281318</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184.0839356199292</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>157.9012582804757</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>218.9696938180571</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.816623302254</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
-        <v>157.9012582804757</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>218.9696938180571</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>157.9012582804757</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>218.9696938180571</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>10.8061339609081</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75612396528671</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.014998820090892</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>30.87735666625586</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>116.2357420115542</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>255.8942561066896</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>383.5191561611372</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>475.7894263014939</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>529.4074115682853</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>537.9737769658685</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>507.9933824485897</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>433.5605990775957</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>325.5859538330906</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>189.3909196325347</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>68.70428561282128</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>13.19815733494789</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2411999056072713</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.613166585674105</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>15.57979307743149</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>55.54104253307773</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>152.4088658859908</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>260.4910271261558</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>350.2623325605112</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>408.7396212911974</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>419.5577428240734</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>383.8133674257156</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>308.0440649433297</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>205.919299602891</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>29.96386179969223</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>6.502193386993428</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1061293806364543</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.352424675651428</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>12.02428484351907</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>40.67109842777204</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>95.61642456855594</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>157.1271577711386</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>201.0686649600314</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>211.9987152932506</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>206.9578596840045</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>191.15908051844</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>163.5696171351508</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.2471244311391</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>60.80993132519963</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>23.56907366567078</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>5.778541795965189</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07376861867189614</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32557,7 +32557,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32800,7 +32800,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33736,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33985,7 +33985,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34219,7 +34219,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34447,7 +34447,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877688</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>74.84835158000331</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>163.4293051161566</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>240.0230113315067</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>299.0611783410126</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>308.5607133692776</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>277.895171026903</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>202.3276033223262</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.2802639586411</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>88.94484524048515</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>122.6495881517968</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L6" t="n">
-        <v>211.707952780637</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>266.6055873691791</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>288.2160307407401</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>241.2171229812711</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>174.0696575289995</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.0148132527186</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.257244451883167</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>134.8576659452557</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>228.6586902203475</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>251.5825922550912</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>251.0900320632331</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>215.7442084324797</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>160.8481764000443</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.08508117944473</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215498</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,13 +35269,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>679194.4801399788</v>
+        <v>710746.5085229186</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12426458.88989895</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5739665.974240763</v>
+        <v>6381813.161497337</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9736277.693549033</v>
+        <v>9411383.874672445</v>
       </c>
     </row>
     <row r="11">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>113.1568024905092</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>79.51149230610422</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518637</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,10 +803,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>178.7818072471469</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>63.22700662133222</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>116.3508192993407</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>310.1681053992892</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>166.8801944406088</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>184.1990706392182</v>
       </c>
     </row>
     <row r="7">
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>180.7632747092096</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>103.3387326418228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>227.0406574559909</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>393.1510457267877</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1.781160222249884</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1350,13 +1350,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>99.0171371930436</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>12.27673055432736</v>
+        <v>173.2727459667325</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.2808584968836</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>109.7811651255443</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>195.3635206396373</v>
+        <v>228.1873534853715</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1770,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>18.26879610204004</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.573039120795</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>332.5438833275248</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,13 +1852,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>57.92518451681179</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>131.573039120795</v>
+        <v>70.82764119510665</v>
       </c>
     </row>
     <row r="20">
@@ -2089,10 +2089,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>43.98226791336776</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2134,19 +2134,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>17.35112070699443</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.65913193862759</v>
+        <v>64.14647130913987</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>252.1815824390002</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>157.4513740875575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>17.84935903930831</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>148.8823210979751</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>273.2946044486483</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>238.0876352961026</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T28" t="n">
-        <v>63.72703424640825</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.68942351146622</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>353.8646792139976</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.81983805149571</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>90.57445924393056</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3037,16 +3037,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>62.499123147201</v>
       </c>
       <c r="H32" t="n">
-        <v>229.7965692041371</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>147.9212967840873</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3243,7 +3243,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>270.0697021486467</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>45.23443023079861</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>188.219639431212</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>112.9416910403795</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>18.26879610204004</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>169.501588699314</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>183.1642512458438</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>114.4746605491558</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3720,7 +3720,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>213.053865971316</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>229.796569204138</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>19.68942351146622</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>114.4746605491554</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>178.9066238691943</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>126.5388824951718</v>
+        <v>324.3727542084968</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>6.380068175848154</v>
+        <v>173.6268892744755</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1181.996585635751</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="C2" t="n">
-        <v>1181.996585635751</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="D2" t="n">
-        <v>1181.996585635751</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>187.528182236282</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872914</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.039527904692</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>2239.293886510516</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="U2" t="n">
-        <v>2239.293886510516</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="V2" t="n">
-        <v>1908.230999166945</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="W2" t="n">
-        <v>1555.462343896831</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="X2" t="n">
-        <v>1181.996585635751</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="Y2" t="n">
-        <v>1181.996585635751</v>
+        <v>287.4747669672984</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542606</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488051</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756901</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057902</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380231</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694948</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>691.074259448092</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>455.9221512163493</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>201.6847944881476</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>642.7634789947318</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C4" t="n">
-        <v>473.8272960668249</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>473.8272960668249</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668249</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1572.580456820626</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>1375.951708980487</v>
+        <v>808.5369117403633</v>
       </c>
       <c r="T4" t="n">
-        <v>1152.973228175223</v>
+        <v>808.5369117403633</v>
       </c>
       <c r="U4" t="n">
-        <v>1152.973228175223</v>
+        <v>542.1592551731853</v>
       </c>
       <c r="V4" t="n">
-        <v>1152.973228175223</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="W4" t="n">
-        <v>863.556058138262</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="X4" t="n">
-        <v>863.556058138262</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y4" t="n">
-        <v>642.7634789947318</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1935.292509403255</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="C5" t="n">
-        <v>1621.991392838317</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="D5" t="n">
-        <v>1263.725694231566</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V5" t="n">
-        <v>2308.758267664335</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W5" t="n">
-        <v>2308.758267664335</v>
+        <v>1815.691171634539</v>
       </c>
       <c r="X5" t="n">
-        <v>1935.292509403255</v>
+        <v>1647.125318664227</v>
       </c>
       <c r="Y5" t="n">
-        <v>1935.292509403255</v>
+        <v>1256.985986688415</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>809.4046422439259</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>634.9516129627989</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057906</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>214.3836900926279</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380231</v>
+        <v>371.4749568374567</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694948</v>
+        <v>629.0260923974442</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>948.9329878659535</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1291.715511860585</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601822</v>
+        <v>1583.074758115151</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>1867.009313401722</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2029.495166406371</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>1834.784844880347</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>1606.683255013611</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1371.531146781868</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1371.531146781868</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1163.679646576335</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>977.6199792639939</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1287.175893077873</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1104.586726704934</v>
       </c>
       <c r="U7" t="n">
-        <v>927.7205539329314</v>
+        <v>815.4604056789578</v>
       </c>
       <c r="V7" t="n">
-        <v>673.0360657270445</v>
+        <v>560.775917473071</v>
       </c>
       <c r="W7" t="n">
-        <v>383.6188956900839</v>
+        <v>271.3587474361104</v>
       </c>
       <c r="X7" t="n">
-        <v>155.6293447920665</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>514.7427041430115</v>
+        <v>1054.551232880759</v>
       </c>
       <c r="C8" t="n">
-        <v>514.7427041430115</v>
+        <v>1054.551232880759</v>
       </c>
       <c r="D8" t="n">
-        <v>514.7427041430115</v>
+        <v>696.2855342740081</v>
       </c>
       <c r="E8" t="n">
-        <v>514.7427041430115</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F8" t="n">
-        <v>514.7427041430115</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182945</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="X8" t="n">
-        <v>1291.481876182945</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="Y8" t="n">
-        <v>901.3425442071332</v>
+        <v>1441.15107294488</v>
       </c>
     </row>
     <row r="9">
@@ -4859,55 +4859,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966393</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155124</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.916702154261</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488054</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756905</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694947</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
         <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4919,10 +4919,10 @@
         <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>538.2860735999672</v>
+        <v>53.04593830764946</v>
       </c>
       <c r="C10" t="n">
-        <v>369.3498906720603</v>
+        <v>53.04593830764946</v>
       </c>
       <c r="D10" t="n">
-        <v>219.2332512597245</v>
+        <v>53.04593830764946</v>
       </c>
       <c r="E10" t="n">
-        <v>219.2332512597245</v>
+        <v>53.04593830764946</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>927.7205539329314</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V10" t="n">
-        <v>827.7032436369277</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W10" t="n">
-        <v>538.2860735999672</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="X10" t="n">
-        <v>538.2860735999672</v>
+        <v>53.04593830764946</v>
       </c>
       <c r="Y10" t="n">
-        <v>538.2860735999672</v>
+        <v>53.04593830764946</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796265</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="C11" t="n">
-        <v>909.3697179459625</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="D11" t="n">
-        <v>909.3697179459625</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E11" t="n">
-        <v>523.5814653477182</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943748</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="12">
@@ -5117,16 +5117,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5135,13 +5135,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>826.5851666348717</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C13" t="n">
-        <v>657.6489837069648</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D13" t="n">
-        <v>507.5323442946291</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E13" t="n">
-        <v>359.619250712236</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F13" t="n">
-        <v>212.7293032143257</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T13" t="n">
-        <v>1705.527932658019</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="U13" t="n">
-        <v>1416.425065783662</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="V13" t="n">
-        <v>1161.740577577775</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="W13" t="n">
-        <v>872.3234075408147</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X13" t="n">
-        <v>872.3234075408147</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y13" t="n">
-        <v>872.3234075408147</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1661.795585684488</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C14" t="n">
-        <v>1292.833068744076</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>934.5673701373257</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810562</v>
@@ -5287,19 +5287,19 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V14" t="n">
-        <v>3009.337405520489</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W14" t="n">
-        <v>2812.000515985501</v>
+        <v>2400.229512818681</v>
       </c>
       <c r="X14" t="n">
-        <v>2438.534757724422</v>
+        <v>2026.763754557601</v>
       </c>
       <c r="Y14" t="n">
-        <v>2048.39542574861</v>
+        <v>1636.624422581789</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
         <v>2407.411984886741</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>231.8553933260938</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="C16" t="n">
-        <v>231.8553933260938</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="D16" t="n">
-        <v>231.8553933260938</v>
+        <v>494.2172172304616</v>
       </c>
       <c r="E16" t="n">
-        <v>213.4020639300938</v>
+        <v>346.3041236480685</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218343</v>
+        <v>199.4141761501582</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>199.4141761501582</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V16" t="n">
-        <v>970.0546934046018</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W16" t="n">
-        <v>680.6375233676413</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X16" t="n">
-        <v>452.6479724696239</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y16" t="n">
-        <v>231.8553933260938</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1619.798686923957</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C17" t="n">
-        <v>1250.836169983545</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D17" t="n">
-        <v>892.5704713767946</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5545,22 +5545,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3267.095534218452</v>
       </c>
       <c r="U17" t="n">
-        <v>3072.075344883008</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V17" t="n">
-        <v>3072.075344883008</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W17" t="n">
-        <v>2719.306689612893</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X17" t="n">
-        <v>2345.840931351814</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y17" t="n">
-        <v>1955.701599376002</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="18">
@@ -5585,16 +5585,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>511.4317969248226</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C19" t="n">
-        <v>511.4317969248226</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D19" t="n">
-        <v>361.3151575124869</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E19" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5700,25 +5700,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V19" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W19" t="n">
-        <v>872.3234075408147</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X19" t="n">
-        <v>644.3338566427974</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y19" t="n">
-        <v>511.4317969248226</v>
+        <v>381.1049005553748</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1295.236214140706</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C20" t="n">
-        <v>926.2736972002947</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D20" t="n">
-        <v>568.0079985935442</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E20" t="n">
-        <v>523.5814653477182</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
         <v>523.5814653477182</v>
@@ -5749,55 +5749,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912079</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450754</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.97538618064</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X20" t="n">
-        <v>2071.97538618064</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y20" t="n">
-        <v>1681.836054204828</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="21">
@@ -5822,16 +5822,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>708.3064969624544</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="C22" t="n">
-        <v>539.3703140345475</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="D22" t="n">
-        <v>389.2536746222117</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="E22" t="n">
-        <v>241.3405810398186</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="F22" t="n">
-        <v>94.45063354190827</v>
+        <v>131.3065318959611</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5940,22 +5940,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1735.608663915319</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1446.505797040963</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V22" t="n">
-        <v>1446.505797040963</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W22" t="n">
-        <v>1157.088627004002</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X22" t="n">
-        <v>929.0990761059845</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y22" t="n">
-        <v>708.3064969624544</v>
+        <v>459.8449442241111</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1636.624422581789</v>
+        <v>1891.353293732295</v>
       </c>
       <c r="C23" t="n">
         <v>1636.624422581789</v>
@@ -5980,61 +5980,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V23" t="n">
-        <v>2535.034709923659</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W23" t="n">
-        <v>2182.266054653545</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X23" t="n">
-        <v>2182.266054653545</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y23" t="n">
-        <v>2023.224262645911</v>
+        <v>2277.953133796416</v>
       </c>
     </row>
     <row r="24">
@@ -6059,16 +6059,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>848.0708164780106</v>
+        <v>530.2513404403937</v>
       </c>
       <c r="C25" t="n">
-        <v>679.1346335501037</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D25" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E25" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1909.264892493232</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1620.162025618876</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>1365.477537412989</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W25" t="n">
-        <v>1076.060367376028</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X25" t="n">
-        <v>848.0708164780106</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y25" t="n">
-        <v>848.0708164780106</v>
+        <v>530.2513404403937</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1887.813801820605</v>
+        <v>1870.656190741329</v>
       </c>
       <c r="C26" t="n">
-        <v>1518.851284880193</v>
+        <v>1501.693673800917</v>
       </c>
       <c r="D26" t="n">
-        <v>1518.851284880193</v>
+        <v>1143.427975194167</v>
       </c>
       <c r="E26" t="n">
-        <v>1133.063032281949</v>
+        <v>757.6397225959226</v>
       </c>
       <c r="F26" t="n">
-        <v>722.0771274923411</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>307.0046773373376</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
         <v>66.5121164321834</v>
@@ -6265,13 +6265,13 @@
         <v>2630.721789066531</v>
       </c>
       <c r="W26" t="n">
-        <v>2277.953133796416</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X26" t="n">
-        <v>2277.953133796416</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y26" t="n">
-        <v>1887.813801820605</v>
+        <v>2257.256030805451</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>848.0708164780106</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C28" t="n">
-        <v>679.1346335501037</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D28" t="n">
-        <v>529.0179941377679</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E28" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
         <v>66.5121164321834</v>
@@ -6411,25 +6411,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088493</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T28" t="n">
-        <v>1862.923806425454</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U28" t="n">
-        <v>1573.820939551098</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V28" t="n">
-        <v>1319.136451345211</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W28" t="n">
-        <v>1029.71928130825</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X28" t="n">
-        <v>1029.71928130825</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.71928130825</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1678.62132134232</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="C29" t="n">
-        <v>1678.62132134232</v>
+        <v>1583.077587705311</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.35562273557</v>
+        <v>1224.81188909856</v>
       </c>
       <c r="E29" t="n">
-        <v>934.5673701373257</v>
+        <v>839.0236365003159</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180639</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919559</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y29" t="n">
-        <v>1698.509627919559</v>
+        <v>1952.040104645722</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>304.8914167017408</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C31" t="n">
-        <v>304.8914167017408</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
-        <v>304.8914167017408</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E31" t="n">
-        <v>304.8914167017408</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>158.0014692038305</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6663,10 +6663,10 @@
         <v>935.322011573528</v>
       </c>
       <c r="X31" t="n">
-        <v>707.3324606755107</v>
+        <v>935.322011573528</v>
       </c>
       <c r="Y31" t="n">
-        <v>486.5398815319805</v>
+        <v>714.5294324299979</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1822.632236038043</v>
+        <v>1565.440264581601</v>
       </c>
       <c r="C32" t="n">
-        <v>1453.669719097631</v>
+        <v>1196.477747641189</v>
       </c>
       <c r="D32" t="n">
-        <v>1095.404020490881</v>
+        <v>838.2120490344389</v>
       </c>
       <c r="E32" t="n">
-        <v>709.6157678926365</v>
+        <v>838.2120490344389</v>
       </c>
       <c r="F32" t="n">
-        <v>298.629863103029</v>
+        <v>427.2261442448313</v>
       </c>
       <c r="G32" t="n">
-        <v>298.629863103029</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
         <v>66.51211643218342</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.605821609171</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W32" t="n">
-        <v>2972.837166339056</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X32" t="n">
-        <v>2599.371408077976</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y32" t="n">
-        <v>2209.232076102165</v>
+        <v>1952.040104645723</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P33" t="n">
         <v>2407.411984886741</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.51211643218342</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="C34" t="n">
-        <v>66.51211643218342</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="D34" t="n">
-        <v>66.51211643218342</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="E34" t="n">
-        <v>66.51211643218342</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218342</v>
+        <v>215.9275677292414</v>
       </c>
       <c r="G34" t="n">
         <v>66.51211643218342</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T34" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U34" t="n">
-        <v>1241.044369546818</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V34" t="n">
-        <v>986.3598813409312</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W34" t="n">
-        <v>696.9427113039706</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X34" t="n">
-        <v>468.9531604059532</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y34" t="n">
-        <v>248.1605812624231</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1822.632236038044</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C35" t="n">
-        <v>1453.669719097632</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D35" t="n">
-        <v>1095.404020490882</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>709.6157678926375</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>298.6298631030299</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296687</v>
@@ -6964,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W35" t="n">
-        <v>2972.837166339057</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X35" t="n">
-        <v>2599.371408077977</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.232076102166</v>
+        <v>2051.278283189674</v>
       </c>
     </row>
     <row r="36">
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>530.2513404403938</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C37" t="n">
-        <v>361.3151575124869</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D37" t="n">
-        <v>361.3151575124869</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E37" t="n">
         <v>213.4020639300938</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W37" t="n">
-        <v>872.3234075408147</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X37" t="n">
-        <v>644.3338566427974</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y37" t="n">
-        <v>644.3338566427974</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.569348694473</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C38" t="n">
-        <v>1491.569348694473</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D38" t="n">
         <v>1320.35562273557</v>
@@ -7171,55 +7171,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="V38" t="n">
-        <v>2994.542934265601</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="W38" t="n">
-        <v>2641.774278995486</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.308520734407</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y38" t="n">
-        <v>1878.169188758595</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="39">
@@ -7244,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>532.2446860521933</v>
+        <v>182.143086683856</v>
       </c>
       <c r="C40" t="n">
-        <v>532.2446860521933</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D40" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E40" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U40" t="n">
-        <v>1446.505797040963</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V40" t="n">
-        <v>1231.299871817411</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W40" t="n">
-        <v>941.8827017804504</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X40" t="n">
-        <v>713.893150882433</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y40" t="n">
-        <v>713.893150882433</v>
+        <v>363.7915515140957</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1822.632236038044</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C41" t="n">
-        <v>1453.669719097632</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D41" t="n">
-        <v>1095.404020490882</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>709.6157678926375</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>298.6298631030299</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339057</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.371408077977</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.232076102166</v>
+        <v>1678.62132134232</v>
       </c>
     </row>
     <row r="42">
@@ -7487,16 +7487,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7508,7 +7508,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>532.2446860521933</v>
+        <v>182.1430866838555</v>
       </c>
       <c r="C43" t="n">
-        <v>532.2446860521933</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D43" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7590,31 +7590,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1705.527932658019</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U43" t="n">
-        <v>1416.425065783662</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V43" t="n">
-        <v>1161.740577577775</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="W43" t="n">
-        <v>981.0268160937408</v>
+        <v>812.5736815556427</v>
       </c>
       <c r="X43" t="n">
-        <v>753.0372651957234</v>
+        <v>584.5841306576253</v>
       </c>
       <c r="Y43" t="n">
-        <v>532.2446860521933</v>
+        <v>363.7915515140952</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2047.583838282732</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C44" t="n">
-        <v>1678.62132134232</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D44" t="n">
         <v>1320.35562273557</v>
@@ -7645,55 +7645,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W44" t="n">
-        <v>3197.788768583745</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="X44" t="n">
-        <v>2824.323010322666</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y44" t="n">
-        <v>2434.183678346854</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="45">
@@ -7724,16 +7724,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7745,7 +7745,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.4482993600903</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7827,31 +7827,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1920.850034779555</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T46" t="n">
-        <v>1699.083419349081</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U46" t="n">
-        <v>1409.980552474725</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V46" t="n">
-        <v>1155.296064268838</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W46" t="n">
-        <v>865.8788942318776</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X46" t="n">
-        <v>637.8893433338602</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y46" t="n">
-        <v>417.0967641903301</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3273467878355</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878355</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>70.12741386431418</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>54.95314511566522</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -22552,22 +22552,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>10.29541290828519</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>132.778223297119</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22682,7 +22682,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22691,10 +22691,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>26.9911779563306</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22707,7 +22707,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>38.33056579824141</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>88.36834494425301</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>55.10478637171832</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22801,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>202.8509062378603</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22880,10 +22880,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22925,13 +22925,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>21.48362513808618</v>
       </c>
     </row>
     <row r="7">
@@ -22956,13 +22956,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>40.60454402509308</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>115.245920710272</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23026,22 +23026,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>154.8897126162709</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>18.39665704616624</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,13 +23074,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23181,22 +23181,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6398878006814</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23238,13 +23238,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>153.1205061307844</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>352.9961612166802</v>
+        <v>192.0001458042751</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.5511216850537</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>176.7418332110467</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>153.8774480777757</v>
+        <v>121.0536152320416</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>128.1651665445291</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>13.18197579352579</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23703,7 +23703,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.18995833595579</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,13 +23740,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -23785,13 +23785,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>145.9927856228084</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23940,7 +23940,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>87.01161423129975</v>
+        <v>147.7570121569881</v>
       </c>
     </row>
     <row r="20">
@@ -23977,10 +23977,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>337.948102158894</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>310.4011377631405</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.3666763204006</v>
+        <v>101.8793369498884</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24180,19 +24180,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>113.0913093320074</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>228.7865645684961</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,10 +24414,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>201.6995902368609</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>69.70233225411974</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>133.5814412930631</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>56.52012909121785</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24651,10 +24651,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T28" t="n">
-        <v>155.8219150297609</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>363.0444181520144</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>53.01136652771379</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.0121421304416</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>75.45134901509766</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>348.4226025062525</v>
       </c>
       <c r="H32" t="n">
-        <v>64.81119518318334</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>18.10451147494089</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>16.14213605696614</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>337.499411432682</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>222.7020862222414</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.89028914155779</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>128.1651665445291</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>185.1814529213689</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>67.83092071305813</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>52.77216054947203</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>39.08377735251202</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>181.1251564493155</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>366.5485151445874</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>52.77216054947247</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>107.6163744673967</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>222.7020862222412</v>
+        <v>24.86821450891625</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>183.3889571555937</v>
+        <v>16.14213605696639</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>782991.1269625626</v>
+        <v>523336.9476551464</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>782991.1269625626</v>
+        <v>715141.9018106239</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>782991.1269625626</v>
+        <v>782991.1269625627</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>861641.9069024867</v>
+        <v>861641.9069024865</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>861641.9069024868</v>
+        <v>861641.9069024867</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>861641.9069024868</v>
+        <v>861641.9069024866</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>861641.9069024867</v>
+        <v>861641.9069024866</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>861641.9069024867</v>
+        <v>861641.9069024865</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>861641.9069024869</v>
+        <v>861641.9069024865</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>861641.9069024868</v>
+        <v>861641.9069024866</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>305971.6304943086</v>
+        <v>203966.5811971124</v>
       </c>
       <c r="C2" t="n">
-        <v>305971.6304943085</v>
+        <v>279547.2423401893</v>
       </c>
       <c r="D2" t="n">
         <v>305971.6304943087</v>
       </c>
       <c r="E2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="F2" t="n">
         <v>340997.0989709205</v>
@@ -26331,31 +26331,31 @@
         <v>340997.0989709205</v>
       </c>
       <c r="H2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="I2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="J2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="K2" t="n">
         <v>340997.0989709207</v>
-      </c>
-      <c r="J2" t="n">
-        <v>340997.0989709206</v>
-      </c>
-      <c r="K2" t="n">
-        <v>340997.0989709206</v>
       </c>
       <c r="L2" t="n">
         <v>340997.0989709204</v>
       </c>
       <c r="M2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="N2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="O2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="P2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709207</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>308174.1417414034</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>99404.18284596124</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171908</v>
+        <v>182072.97981719</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>71651.52831447154</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>24921.83922824962</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341497</v>
+        <v>47552.26579341482</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18583.86599059036</v>
+        <v>13649.17455297509</v>
       </c>
       <c r="C4" t="n">
-        <v>18583.86599059036</v>
+        <v>16719.08796814454</v>
       </c>
       <c r="D4" t="n">
         <v>18583.86599059035</v>
       </c>
       <c r="E4" t="n">
-        <v>9770.403102091475</v>
+        <v>9770.403102091497</v>
       </c>
       <c r="F4" t="n">
         <v>9770.403102091475</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26487,16 +26487,16 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
@@ -26511,7 +26511,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-925529.2542339375</v>
+        <v>-553851.1486699971</v>
       </c>
       <c r="C6" t="n">
-        <v>189222.5293419818</v>
+        <v>-131199.9374381906</v>
       </c>
       <c r="D6" t="n">
-        <v>189222.5293419819</v>
+        <v>94523.06294572321</v>
       </c>
       <c r="E6" t="n">
-        <v>71371.18619218406</v>
+        <v>74499.75656043977</v>
       </c>
       <c r="F6" t="n">
-        <v>253444.1660093747</v>
+        <v>256572.7363776293</v>
       </c>
       <c r="G6" t="n">
-        <v>253444.1660093747</v>
+        <v>256572.7363776296</v>
       </c>
       <c r="H6" t="n">
-        <v>253444.1660093748</v>
+        <v>256572.7363776296</v>
       </c>
       <c r="I6" t="n">
-        <v>253444.1660093749</v>
+        <v>256572.7363776297</v>
       </c>
       <c r="J6" t="n">
-        <v>85838.9881993923</v>
+        <v>187573.5819585156</v>
       </c>
       <c r="K6" t="n">
-        <v>253444.1660093748</v>
+        <v>184921.2080631583</v>
       </c>
       <c r="L6" t="n">
-        <v>253444.1660093746</v>
+        <v>231650.8971493799</v>
       </c>
       <c r="M6" t="n">
-        <v>205891.9002159597</v>
+        <v>209020.470584215</v>
       </c>
       <c r="N6" t="n">
-        <v>253444.1660093747</v>
+        <v>256572.7363776298</v>
       </c>
       <c r="O6" t="n">
-        <v>253444.1660093747</v>
+        <v>256572.73637763</v>
       </c>
       <c r="P6" t="n">
-        <v>253444.1660093747</v>
+        <v>256572.7363776298</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022926</v>
@@ -26825,13 +26825,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>239.6556507682059</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>80.35422757985532</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757584</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>98.46987537387577</v>
       </c>
       <c r="E4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>98.46987537387588</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>98.46987537387577</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,25 +31679,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32472,7 +32472,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953979</v>
       </c>
       <c r="K20" t="n">
         <v>557.281137600381</v>
@@ -32563,7 +32563,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33280,10 +33280,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313203</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>172.7419126813483</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313203</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>286.8025810975471</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>304.4954681847781</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>352.6335057535155</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687116</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36211,7 +36211,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
